--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oms1n\OneDrive\Desktop\CS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oms1n\OneDrive\Desktop\CS\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CCDAEF8-4F9B-4D7A-9189-74962D68428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA6253-C722-4B9C-BAC6-274E5991A697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="312" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -420,15 +420,57 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
